--- a/12 Science(1).xlsx
+++ b/12 Science(1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\charge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EF29832-E4FA-42CF-BF0A-64EF857AAF6F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A2E051C4-B41D-403C-A1AA-31B516828367}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="788">
   <si>
     <t>Name in Full</t>
   </si>
@@ -2347,6 +2347,48 @@
   </si>
   <si>
     <t>W.S.N.</t>
+  </si>
+  <si>
+    <t>indexNo</t>
+  </si>
+  <si>
+    <t>initials</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>fullName</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>homeTel</t>
+  </si>
+  <si>
+    <t>guardianName</t>
+  </si>
+  <si>
+    <t>guardianAddress</t>
+  </si>
+  <si>
+    <t>guardianRelationship</t>
+  </si>
+  <si>
+    <t>guardianContact</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
 </sst>
 </file>
@@ -2506,7 +2548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2791,6 +2833,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4373,8 +4418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4392,47 +4437,51 @@
     <col min="11" max="11" width="32" customWidth="1"/>
     <col min="12" max="12" width="21.85546875" customWidth="1"/>
     <col min="13" max="13" width="16.85546875" style="44" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>692</v>
+        <v>774</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>650</v>
+        <v>775</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>674</v>
+        <v>776</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>675</v>
+        <v>777</v>
       </c>
       <c r="E1" s="33" t="s">
         <v>453</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>683</v>
+        <v>779</v>
       </c>
       <c r="G1" s="47" t="s">
-        <v>684</v>
+        <v>780</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>687</v>
+        <v>781</v>
       </c>
       <c r="I1" s="45" t="s">
-        <v>691</v>
+        <v>782</v>
       </c>
       <c r="J1" s="33" t="s">
-        <v>686</v>
+        <v>784</v>
       </c>
       <c r="K1" s="33" t="s">
-        <v>685</v>
+        <v>783</v>
       </c>
       <c r="L1" s="51" t="s">
-        <v>689</v>
+        <v>785</v>
       </c>
       <c r="M1" s="84" t="s">
-        <v>690</v>
+        <v>786</v>
+      </c>
+      <c r="N1" s="116" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4472,6 +4521,9 @@
       <c r="L2" s="3"/>
       <c r="M2" s="6">
         <v>772435975</v>
+      </c>
+      <c r="N2" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
